--- a/data/positive_signals/Indirectly connected (A-X-B) - trimethoprim - Bullous eruptions.xlsx
+++ b/data/positive_signals/Indirectly connected (A-X-B) - trimethoprim - Bullous eruptions.xlsx
@@ -191,247 +191,247 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>121733807</t>
+    <t>55341847</t>
   </si>
   <si>
     <t>is administered to</t>
   </si>
   <si>
-    <t>117453793</t>
+    <t>51261896</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>117459011</t>
+    <t>51266807</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>51334049</t>
+  </si>
+  <si>
+    <t>53085732</t>
+  </si>
+  <si>
+    <t>69987932</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>51869467</t>
+  </si>
+  <si>
+    <t>51869580</t>
+  </si>
+  <si>
+    <t>54216638</t>
+  </si>
+  <si>
+    <t>2517682</t>
+  </si>
+  <si>
+    <t>boys</t>
+  </si>
+  <si>
+    <t>68412201</t>
+  </si>
+  <si>
+    <t>58830242</t>
+  </si>
+  <si>
+    <t>684679</t>
+  </si>
+  <si>
+    <t>infant, newborn</t>
+  </si>
+  <si>
+    <t>57515938</t>
+  </si>
+  <si>
+    <t>55517824</t>
+  </si>
+  <si>
+    <t>650553</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>131616218</t>
+  </si>
+  <si>
+    <t>78122755</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>58350772</t>
+  </si>
+  <si>
+    <t>99578394</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>51360593</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>51360525</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>91146239</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>87239524</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>66163822</t>
+  </si>
+  <si>
+    <t>4042224</t>
+  </si>
+  <si>
+    <t>dapsone</t>
+  </si>
+  <si>
+    <t>51451133</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>102922638</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>51451385</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>78320184</t>
+  </si>
+  <si>
+    <t>84067160</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>51451994</t>
+  </si>
+  <si>
+    <t>51451279</t>
+  </si>
+  <si>
+    <t>84047343</t>
+  </si>
+  <si>
+    <t>114043056</t>
+  </si>
+  <si>
     <t>4033983</t>
   </si>
   <si>
     <t>pharmaceutical preparations</t>
   </si>
   <si>
-    <t>131759596</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>130962171</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>124032530</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>122530034</t>
+    <t>56558946</t>
   </si>
   <si>
     <t>inhibits</t>
   </si>
   <si>
-    <t>186382759</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>105766508</t>
+    <t>65374166</t>
+  </si>
+  <si>
+    <t>120238365</t>
+  </si>
+  <si>
+    <t>is lower than</t>
+  </si>
+  <si>
+    <t>52826492</t>
+  </si>
+  <si>
+    <t>39414657</t>
   </si>
   <si>
     <t>is ingredient of</t>
   </si>
   <si>
-    <t>119014726</t>
-  </si>
-  <si>
-    <t>186379289</t>
-  </si>
-  <si>
-    <t>is lower than</t>
-  </si>
-  <si>
-    <t>130962105</t>
-  </si>
-  <si>
-    <t>119150684</t>
-  </si>
-  <si>
-    <t>117794727</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>142812784</t>
+    <t>51578928</t>
+  </si>
+  <si>
+    <t>64565778</t>
+  </si>
+  <si>
+    <t>59667781</t>
+  </si>
+  <si>
+    <t>57667549</t>
+  </si>
+  <si>
+    <t>64565852</t>
+  </si>
+  <si>
+    <t>120241932</t>
+  </si>
+  <si>
+    <t>76350720</t>
   </si>
   <si>
     <t>causes</t>
   </si>
   <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>118105034</t>
-  </si>
-  <si>
-    <t>118105164</t>
-  </si>
-  <si>
-    <t>120547375</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>117533666</t>
-  </si>
-  <si>
-    <t>119351149</t>
-  </si>
-  <si>
-    <t>136332181</t>
-  </si>
-  <si>
-    <t>2517682</t>
-  </si>
-  <si>
-    <t>boys</t>
-  </si>
-  <si>
-    <t>131989319</t>
-  </si>
-  <si>
-    <t>125271467</t>
-  </si>
-  <si>
-    <t>684679</t>
-  </si>
-  <si>
-    <t>infant, newborn</t>
-  </si>
-  <si>
-    <t>123923975</t>
-  </si>
-  <si>
-    <t>122056665</t>
-  </si>
-  <si>
-    <t>650553</t>
-  </si>
-  <si>
-    <t>infant</t>
-  </si>
-  <si>
-    <t>197817226</t>
-  </si>
-  <si>
-    <t>144464660</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>124756022</t>
-  </si>
-  <si>
-    <t>165773837</t>
-  </si>
-  <si>
-    <t>5648228</t>
-  </si>
-  <si>
-    <t>therapeutic procedure</t>
-  </si>
-  <si>
-    <t>Procedures</t>
-  </si>
-  <si>
-    <t>117542399</t>
-  </si>
-  <si>
-    <t>153531124</t>
-  </si>
-  <si>
-    <t>157437113</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>117542567</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>132508592</t>
-  </si>
-  <si>
     <t>5108168</t>
   </si>
   <si>
     <t>penicillin g</t>
   </si>
   <si>
-    <t>130862763</t>
-  </si>
-  <si>
-    <t>142386444</t>
-  </si>
-  <si>
-    <t>4042224</t>
-  </si>
-  <si>
-    <t>dapsone</t>
-  </si>
-  <si>
-    <t>117644364</t>
-  </si>
-  <si>
-    <t>144772996</t>
-  </si>
-  <si>
-    <t>150493693</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>117644490</t>
-  </si>
-  <si>
-    <t>117645173</t>
-  </si>
-  <si>
-    <t>169134623</t>
-  </si>
-  <si>
-    <t>117644591</t>
-  </si>
-  <si>
-    <t>150473359</t>
-  </si>
-  <si>
-    <t>180245931</t>
+    <t>64450608</t>
+  </si>
+  <si>
+    <t>75949843</t>
   </si>
   <si>
     <t>4034949</t>
@@ -440,10 +440,10 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t>142897298</t>
-  </si>
-  <si>
-    <t>193498222</t>
+    <t>78640516</t>
+  </si>
+  <si>
+    <t>127281809</t>
   </si>
   <si>
     <t>4028721</t>
@@ -452,19 +452,19 @@
     <t>nalidixic acid</t>
   </si>
   <si>
-    <t>126787731</t>
-  </si>
-  <si>
-    <t>123135006</t>
-  </si>
-  <si>
-    <t>131545760</t>
-  </si>
-  <si>
-    <t>119784924</t>
-  </si>
-  <si>
-    <t>119675720</t>
+    <t>56738347</t>
+  </si>
+  <si>
+    <t>53515749</t>
+  </si>
+  <si>
+    <t>60352202</t>
+  </si>
+  <si>
+    <t>65160205</t>
+  </si>
+  <si>
+    <t>53339440</t>
   </si>
   <si>
     <t>4041595</t>
@@ -473,10 +473,10 @@
     <t>chloroquine</t>
   </si>
   <si>
-    <t>157409483</t>
-  </si>
-  <si>
-    <t>183056201</t>
+    <t>91181209</t>
+  </si>
+  <si>
+    <t>116859320</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -749,7 +749,7 @@
         <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -764,78 +764,24 @@
         <v>67</v>
       </c>
       <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
         <v>68</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
         <v>69</v>
       </c>
-      <c r="N3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" t="s">
-        <v>71</v>
-      </c>
       <c r="P3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S3" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" t="s">
-        <v>76</v>
-      </c>
-      <c r="U3" t="s">
-        <v>77</v>
-      </c>
-      <c r="V3" t="s">
-        <v>78</v>
-      </c>
-      <c r="W3" t="s">
-        <v>79</v>
-      </c>
-      <c r="X3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -847,10 +793,10 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
         <v>55</v>
@@ -865,19 +811,19 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="N4" t="s">
         <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s">
         <v>64</v>
@@ -897,10 +843,10 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>55</v>
@@ -915,27 +861,21 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" t="s">
-        <v>97</v>
-      </c>
-      <c r="P5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -947,10 +887,10 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -965,13 +905,13 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
         <v>64</v>
@@ -979,7 +919,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -991,10 +931,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -1009,13 +949,13 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
         <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s">
         <v>64</v>
@@ -1035,10 +975,10 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>55</v>
@@ -1053,13 +993,13 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
         <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
         <v>64</v>
@@ -1079,13 +1019,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -1097,21 +1037,39 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T9" t="s">
         <v>62</v>
-      </c>
-      <c r="M9" t="s">
-        <v>113</v>
-      </c>
-      <c r="N9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -1123,13 +1081,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1141,39 +1099,63 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>111</v>
+      </c>
+      <c r="R10" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" t="s">
+        <v>112</v>
+      </c>
+      <c r="T10" t="s">
+        <v>113</v>
+      </c>
+      <c r="U10" t="s">
+        <v>114</v>
+      </c>
+      <c r="V10" t="s">
+        <v>108</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA10" t="s">
         <v>117</v>
       </c>
-      <c r="L10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" t="s">
-        <v>118</v>
-      </c>
-      <c r="N10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>121</v>
-      </c>
-      <c r="R10" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" t="s">
-        <v>123</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="AB10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1185,10 +1167,10 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -1203,16 +1185,76 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" t="s">
+        <v>108</v>
+      </c>
+      <c r="S11" t="s">
         <v>126</v>
       </c>
-      <c r="L11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="T11" t="s">
         <v>127</v>
       </c>
-      <c r="N11" t="s">
-        <v>87</v>
+      <c r="U11" t="s">
+        <v>128</v>
+      </c>
+      <c r="V11" t="s">
+        <v>97</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12">
@@ -1229,10 +1271,10 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
@@ -1247,58 +1289,16 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="M12" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
-      </c>
-      <c r="O12" t="s">
-        <v>132</v>
-      </c>
-      <c r="P12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>134</v>
-      </c>
-      <c r="R12" t="s">
-        <v>76</v>
-      </c>
-      <c r="S12" t="s">
         <v>135</v>
-      </c>
-      <c r="T12" t="s">
-        <v>72</v>
-      </c>
-      <c r="U12" t="s">
-        <v>136</v>
-      </c>
-      <c r="V12" t="s">
-        <v>72</v>
-      </c>
-      <c r="W12" t="s">
-        <v>137</v>
-      </c>
-      <c r="X12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -1336,7 +1336,7 @@
         <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="M13" t="s">
         <v>143</v>
@@ -1380,31 +1380,31 @@
         <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="M14" t="s">
         <v>147</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
         <v>148</v>
       </c>
       <c r="P14" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="Q14" t="s">
         <v>149</v>
       </c>
       <c r="R14" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="S14" t="s">
         <v>150</v>
       </c>
       <c r="T14" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -1442,13 +1442,13 @@
         <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="M15" t="s">
         <v>154</v>
       </c>
       <c r="N15" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
